--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_accreditation.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_accreditation.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="C3">
-        <v>1833</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
